--- a/exercises/lecture 3/build_ch3_P7cosmetics.xlsx
+++ b/exercises/lecture 3/build_ch3_P7cosmetics.xlsx
@@ -2,20 +2,21 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hebpu\Code_KAMK\K25\JAMK\BusinessAnalytics_Resprictive\exercises\lecture 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B9F1D70-DE2F-44CE-BA29-383D3480A774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B6B0112-905B-43BF-BF21-4E7F94A0317B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="3105" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="PT" sheetId="4" r:id="rId2"/>
+    <sheet name="CC" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">Sheet1!#REF!</definedName>
@@ -55,7 +56,23 @@
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="3" r:id="rId5"/>
+  </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -100,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="77">
   <si>
     <t>Month</t>
   </si>
@@ -257,15 +274,92 @@
   <si>
     <t xml:space="preserve"> Monthly Demand in units</t>
   </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Average of Processing Time (in hours) per line per unit</t>
+  </si>
+  <si>
+    <t>Average of Raw Materials Cost per unit</t>
+  </si>
+  <si>
+    <t>Average of Retail Price per unit</t>
+  </si>
+  <si>
+    <t>Average of  Monthly Demand in units</t>
+  </si>
+  <si>
+    <t>Average retail price = ok</t>
+  </si>
+  <si>
+    <t>average processing time = ok</t>
+  </si>
+  <si>
+    <t>average cost of raw materials = ok</t>
+  </si>
+  <si>
+    <t>Max of  Monthly Demand in units</t>
+  </si>
+  <si>
+    <t>max monthly demand for each cosmetic product = ok</t>
+  </si>
+  <si>
+    <t>profit (cc)</t>
+  </si>
+  <si>
+    <t>Available for Raw materials</t>
+  </si>
+  <si>
+    <t>Labour (hours) per month</t>
+  </si>
+  <si>
+    <t>Labour cost per hour</t>
+  </si>
+  <si>
+    <t>Capasity limit max Demand</t>
+  </si>
+  <si>
+    <t>labour cost per month</t>
+  </si>
+  <si>
+    <t>labour cost</t>
+  </si>
+  <si>
+    <t>Raw material cost</t>
+  </si>
+  <si>
+    <t>xj</t>
+  </si>
+  <si>
+    <t>actual usage of labour hours for given production mix = ok</t>
+  </si>
+  <si>
+    <t>Average usage of labour hours per cosmetic</t>
+  </si>
+  <si>
+    <t>total profit for a given producton mix = ok</t>
+  </si>
+  <si>
+    <t>average usage of labour hours per each cosmetic = ok</t>
+  </si>
+  <si>
+    <t>average net profit for each cosmetic product = ok</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="171" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,16 +380,97 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -303,11 +478,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -316,11 +510,80 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="171" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="171" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="0.0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -331,6 +594,1626 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Janne Bragge" refreshedDate="45642.613184606482" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="150" xr:uid="{F798ABC1-F399-448D-AB61-A4E936AA4772}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:F151" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="6">
+    <cacheField name="Product Line" numFmtId="0">
+      <sharedItems count="46">
+        <s v="AGR-51NG"/>
+        <s v="BFF-58NG"/>
+        <s v="BOS-51NG"/>
+        <s v="BRI-51NG"/>
+        <s v="BUB-51NG"/>
+        <s v="CHE-47NG"/>
+        <s v="CHO-51NG"/>
+        <s v="COS-58NG"/>
+        <s v="CRE-51NG"/>
+        <s v="DET-51NG"/>
+        <s v="EXC-78NG"/>
+        <s v="EXP-51NG"/>
+        <s v="EXP-47NG"/>
+        <s v="FAS-78NG"/>
+        <s v="FEI-51NG"/>
+        <s v="FIE-78NG"/>
+        <s v="FLA-48RS"/>
+        <s v="FOX-51NG"/>
+        <s v="FUN-51NG"/>
+        <s v="GO -58NG"/>
+        <s v="GOT-58NG"/>
+        <s v="HAP-48NG"/>
+        <s v="HIG-51ED"/>
+        <s v="INQ-58NG"/>
+        <s v="INS-51NG"/>
+        <s v="INT-78G "/>
+        <s v="INV-51NG"/>
+        <s v="ITS-58NG"/>
+        <s v="KHA-47G "/>
+        <s v="LAR-48NG"/>
+        <s v="LIV-51NG"/>
+        <s v="NO -48NG"/>
+        <s v="NON-51NG"/>
+        <s v="NOT-58NG"/>
+        <s v="NUT-47NG"/>
+        <s v="OCT-51NG"/>
+        <s v="ON -58NG"/>
+        <s v="PEA-48NG"/>
+        <s v="PEA-51NG"/>
+        <s v="PEC-47NG"/>
+        <s v="PER-51NG"/>
+        <s v="PRE-78NG"/>
+        <s v="REF-51NG"/>
+        <s v="RES-51NG"/>
+        <s v="ROY-51NG"/>
+        <s v="SIE-47NG"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Month" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="3"/>
+    </cacheField>
+    <cacheField name="Processing Time (in hours) per line per unit" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="7.0000000000000007E-2" maxValue="0.17"/>
+    </cacheField>
+    <cacheField name="Raw Materials Cost per unit" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3.5" maxValue="20.5"/>
+    </cacheField>
+    <cacheField name="Retail Price per unit" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="13.49" maxValue="44.99"/>
+    </cacheField>
+    <cacheField name=" Monthly Demand in units" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="35"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="150">
+  <r>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="0.12"/>
+    <n v="6.5"/>
+    <n v="17.989999999999998"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="3"/>
+    <n v="0.12"/>
+    <n v="10.5"/>
+    <n v="24.99"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="0.12"/>
+    <n v="6.5"/>
+    <n v="17.989999999999998"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="3"/>
+    <n v="0.12"/>
+    <n v="6.5"/>
+    <n v="17.989999999999998"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="3"/>
+    <n v="7.0000000000000007E-2"/>
+    <n v="6.5"/>
+    <n v="17.989999999999998"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="3"/>
+    <n v="7.0000000000000007E-2"/>
+    <n v="3.5"/>
+    <n v="13.49"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="3"/>
+    <n v="7.0000000000000007E-2"/>
+    <n v="6.5"/>
+    <n v="17.989999999999998"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="3"/>
+    <n v="0.12"/>
+    <n v="10.5"/>
+    <n v="24.99"/>
+    <n v="23"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="3"/>
+    <n v="0.12"/>
+    <n v="6.5"/>
+    <n v="17.989999999999998"/>
+    <n v="14"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="3"/>
+    <n v="0.12"/>
+    <n v="6.5"/>
+    <n v="17.989999999999998"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="3"/>
+    <n v="0.12"/>
+    <n v="20.5"/>
+    <n v="44.99"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="3"/>
+    <n v="0.17"/>
+    <n v="6.5"/>
+    <n v="17.989999999999998"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="3"/>
+    <n v="0.17"/>
+    <n v="3.5"/>
+    <n v="13.49"/>
+    <n v="11"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="3"/>
+    <n v="7.0000000000000007E-2"/>
+    <n v="20.5"/>
+    <n v="44.99"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="3"/>
+    <n v="7.0000000000000007E-2"/>
+    <n v="6.5"/>
+    <n v="17.989999999999998"/>
+    <n v="14"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="3"/>
+    <n v="7.0000000000000007E-2"/>
+    <n v="20.5"/>
+    <n v="44.99"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <n v="3"/>
+    <n v="7.0000000000000007E-2"/>
+    <n v="4.5"/>
+    <n v="14.49"/>
+    <n v="9"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <n v="3"/>
+    <n v="0.12"/>
+    <n v="6.5"/>
+    <n v="17.989999999999998"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <n v="3"/>
+    <n v="0.12"/>
+    <n v="6.5"/>
+    <n v="17.989999999999998"/>
+    <n v="11"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <n v="3"/>
+    <n v="0.12"/>
+    <n v="6.5"/>
+    <n v="17.989999999999998"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <n v="3"/>
+    <n v="0.17"/>
+    <n v="10.5"/>
+    <n v="24.99"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <n v="3"/>
+    <n v="0.17"/>
+    <n v="10.5"/>
+    <n v="24.99"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <n v="3"/>
+    <n v="0.17"/>
+    <n v="4.5"/>
+    <n v="14.49"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <n v="3"/>
+    <n v="7.0000000000000007E-2"/>
+    <n v="6.5"/>
+    <n v="17.989999999999998"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <n v="3"/>
+    <n v="7.0000000000000007E-2"/>
+    <n v="10.5"/>
+    <n v="24.99"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <n v="3"/>
+    <n v="0.12"/>
+    <n v="6.5"/>
+    <n v="17.989999999999998"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <n v="3"/>
+    <n v="0.12"/>
+    <n v="20.5"/>
+    <n v="44.99"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <n v="3"/>
+    <n v="0.12"/>
+    <n v="6.5"/>
+    <n v="17.989999999999998"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <n v="3"/>
+    <n v="0.12"/>
+    <n v="10.5"/>
+    <n v="24.99"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <n v="3"/>
+    <n v="0.12"/>
+    <n v="3.5"/>
+    <n v="13.49"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <n v="3"/>
+    <n v="7.0000000000000007E-2"/>
+    <n v="4.5"/>
+    <n v="14.49"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <n v="3"/>
+    <n v="0.17"/>
+    <n v="6.5"/>
+    <n v="17.989999999999998"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <n v="3"/>
+    <n v="0.17"/>
+    <n v="4.5"/>
+    <n v="14.49"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <n v="3"/>
+    <n v="0.12"/>
+    <n v="6.5"/>
+    <n v="17.989999999999998"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <n v="3"/>
+    <n v="0.12"/>
+    <n v="6.5"/>
+    <n v="17.989999999999998"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <n v="3"/>
+    <n v="0.12"/>
+    <n v="10.5"/>
+    <n v="24.99"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <n v="3"/>
+    <n v="7.0000000000000007E-2"/>
+    <n v="3.5"/>
+    <n v="13.49"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <n v="3"/>
+    <n v="7.0000000000000007E-2"/>
+    <n v="6.5"/>
+    <n v="17.989999999999998"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="36"/>
+    <n v="3"/>
+    <n v="7.0000000000000007E-2"/>
+    <n v="10.5"/>
+    <n v="24.99"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="36"/>
+    <n v="3"/>
+    <n v="0.12"/>
+    <n v="10.5"/>
+    <n v="24.99"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <n v="3"/>
+    <n v="0.12"/>
+    <n v="4.5"/>
+    <n v="14.49"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <n v="3"/>
+    <n v="0.12"/>
+    <n v="6.5"/>
+    <n v="17.989999999999998"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <n v="3"/>
+    <n v="0.17"/>
+    <n v="3.5"/>
+    <n v="13.49"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <n v="3"/>
+    <n v="0.17"/>
+    <n v="6.5"/>
+    <n v="17.989999999999998"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="41"/>
+    <n v="3"/>
+    <n v="7.0000000000000007E-2"/>
+    <n v="20.5"/>
+    <n v="44.99"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="42"/>
+    <n v="3"/>
+    <n v="7.0000000000000007E-2"/>
+    <n v="6.5"/>
+    <n v="17.989999999999998"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="43"/>
+    <n v="3"/>
+    <n v="7.0000000000000007E-2"/>
+    <n v="6.5"/>
+    <n v="17.989999999999998"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="44"/>
+    <n v="3"/>
+    <n v="0.12"/>
+    <n v="6.5"/>
+    <n v="17.989999999999998"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="45"/>
+    <n v="3"/>
+    <n v="0.12"/>
+    <n v="3.5"/>
+    <n v="13.49"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="45"/>
+    <n v="3"/>
+    <n v="0.12"/>
+    <n v="3.5"/>
+    <n v="13.49"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="0.12"/>
+    <n v="6.5"/>
+    <n v="17.989999999999998"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="0.12"/>
+    <n v="10.5"/>
+    <n v="24.99"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="2"/>
+    <n v="0.12"/>
+    <n v="6.5"/>
+    <n v="17.989999999999998"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="2"/>
+    <n v="0.12"/>
+    <n v="6.5"/>
+    <n v="17.989999999999998"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="2"/>
+    <n v="7.0000000000000007E-2"/>
+    <n v="6.5"/>
+    <n v="17.989999999999998"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="2"/>
+    <n v="7.0000000000000007E-2"/>
+    <n v="3.5"/>
+    <n v="13.49"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="2"/>
+    <n v="7.0000000000000007E-2"/>
+    <n v="6.5"/>
+    <n v="17.989999999999998"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="2"/>
+    <n v="0.12"/>
+    <n v="10.5"/>
+    <n v="24.99"/>
+    <n v="23"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="2"/>
+    <n v="0.12"/>
+    <n v="6.5"/>
+    <n v="17.989999999999998"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="2"/>
+    <n v="0.12"/>
+    <n v="6.5"/>
+    <n v="17.989999999999998"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="2"/>
+    <n v="0.12"/>
+    <n v="20.5"/>
+    <n v="44.99"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="2"/>
+    <n v="0.17"/>
+    <n v="6.5"/>
+    <n v="17.989999999999998"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="2"/>
+    <n v="0.17"/>
+    <n v="3.5"/>
+    <n v="13.49"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="2"/>
+    <n v="7.0000000000000007E-2"/>
+    <n v="20.5"/>
+    <n v="44.99"/>
+    <n v="13"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="2"/>
+    <n v="7.0000000000000007E-2"/>
+    <n v="6.5"/>
+    <n v="17.989999999999998"/>
+    <n v="23"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="2"/>
+    <n v="7.0000000000000007E-2"/>
+    <n v="20.5"/>
+    <n v="44.99"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <n v="2"/>
+    <n v="7.0000000000000007E-2"/>
+    <n v="4.5"/>
+    <n v="14.49"/>
+    <n v="14"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <n v="2"/>
+    <n v="0.12"/>
+    <n v="6.5"/>
+    <n v="17.989999999999998"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <n v="2"/>
+    <n v="0.12"/>
+    <n v="6.5"/>
+    <n v="17.989999999999998"/>
+    <n v="13"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <n v="2"/>
+    <n v="0.12"/>
+    <n v="6.5"/>
+    <n v="17.989999999999998"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <n v="2"/>
+    <n v="0.17"/>
+    <n v="10.5"/>
+    <n v="24.99"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <n v="2"/>
+    <n v="0.17"/>
+    <n v="10.5"/>
+    <n v="24.99"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <n v="2"/>
+    <n v="0.17"/>
+    <n v="4.5"/>
+    <n v="14.49"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <n v="2"/>
+    <n v="7.0000000000000007E-2"/>
+    <n v="6.5"/>
+    <n v="17.989999999999998"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <n v="2"/>
+    <n v="7.0000000000000007E-2"/>
+    <n v="10.5"/>
+    <n v="24.99"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <n v="2"/>
+    <n v="0.12"/>
+    <n v="6.5"/>
+    <n v="17.989999999999998"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <n v="2"/>
+    <n v="0.12"/>
+    <n v="20.5"/>
+    <n v="44.99"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <n v="2"/>
+    <n v="0.12"/>
+    <n v="6.5"/>
+    <n v="17.989999999999998"/>
+    <n v="13"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <n v="2"/>
+    <n v="0.12"/>
+    <n v="10.5"/>
+    <n v="24.99"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <n v="2"/>
+    <n v="0.12"/>
+    <n v="3.5"/>
+    <n v="13.49"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <n v="2"/>
+    <n v="7.0000000000000007E-2"/>
+    <n v="4.5"/>
+    <n v="14.49"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <n v="2"/>
+    <n v="0.17"/>
+    <n v="6.5"/>
+    <n v="17.989999999999998"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <n v="2"/>
+    <n v="0.17"/>
+    <n v="4.5"/>
+    <n v="14.49"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <n v="2"/>
+    <n v="0.12"/>
+    <n v="6.5"/>
+    <n v="17.989999999999998"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <n v="2"/>
+    <n v="0.12"/>
+    <n v="6.5"/>
+    <n v="17.989999999999998"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <n v="2"/>
+    <n v="0.12"/>
+    <n v="10.5"/>
+    <n v="24.99"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <n v="2"/>
+    <n v="7.0000000000000007E-2"/>
+    <n v="3.5"/>
+    <n v="13.49"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <n v="2"/>
+    <n v="7.0000000000000007E-2"/>
+    <n v="6.5"/>
+    <n v="17.989999999999998"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="36"/>
+    <n v="2"/>
+    <n v="7.0000000000000007E-2"/>
+    <n v="10.5"/>
+    <n v="24.99"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="36"/>
+    <n v="2"/>
+    <n v="0.12"/>
+    <n v="10.5"/>
+    <n v="24.99"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <n v="2"/>
+    <n v="0.12"/>
+    <n v="4.5"/>
+    <n v="14.49"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <n v="2"/>
+    <n v="0.12"/>
+    <n v="6.5"/>
+    <n v="17.989999999999998"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <n v="2"/>
+    <n v="0.17"/>
+    <n v="3.5"/>
+    <n v="13.49"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <n v="2"/>
+    <n v="0.17"/>
+    <n v="6.5"/>
+    <n v="17.989999999999998"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="41"/>
+    <n v="2"/>
+    <n v="7.0000000000000007E-2"/>
+    <n v="20.5"/>
+    <n v="44.99"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="42"/>
+    <n v="2"/>
+    <n v="7.0000000000000007E-2"/>
+    <n v="6.5"/>
+    <n v="17.989999999999998"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="43"/>
+    <n v="2"/>
+    <n v="7.0000000000000007E-2"/>
+    <n v="6.5"/>
+    <n v="17.989999999999998"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="44"/>
+    <n v="2"/>
+    <n v="0.12"/>
+    <n v="6.5"/>
+    <n v="17.989999999999998"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="45"/>
+    <n v="2"/>
+    <n v="0.12"/>
+    <n v="3.5"/>
+    <n v="13.49"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="45"/>
+    <n v="2"/>
+    <n v="0.12"/>
+    <n v="3.5"/>
+    <n v="13.49"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="0.12"/>
+    <n v="6.5"/>
+    <n v="17.989999999999998"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="0.12"/>
+    <n v="10.5"/>
+    <n v="24.99"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="0.12"/>
+    <n v="6.5"/>
+    <n v="17.989999999999998"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1"/>
+    <n v="0.12"/>
+    <n v="6.5"/>
+    <n v="17.989999999999998"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="7.0000000000000007E-2"/>
+    <n v="6.5"/>
+    <n v="17.989999999999998"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="1"/>
+    <n v="7.0000000000000007E-2"/>
+    <n v="3.5"/>
+    <n v="13.49"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="1"/>
+    <n v="7.0000000000000007E-2"/>
+    <n v="6.5"/>
+    <n v="17.989999999999998"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="1"/>
+    <n v="0.12"/>
+    <n v="10.5"/>
+    <n v="24.99"/>
+    <n v="35"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="1"/>
+    <n v="0.12"/>
+    <n v="6.5"/>
+    <n v="17.989999999999998"/>
+    <n v="13"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="1"/>
+    <n v="0.12"/>
+    <n v="6.5"/>
+    <n v="17.989999999999998"/>
+    <n v="11"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="1"/>
+    <n v="0.12"/>
+    <n v="20.5"/>
+    <n v="44.99"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="1"/>
+    <n v="0.17"/>
+    <n v="6.5"/>
+    <n v="17.989999999999998"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="1"/>
+    <n v="0.17"/>
+    <n v="3.5"/>
+    <n v="13.49"/>
+    <n v="29"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="1"/>
+    <n v="7.0000000000000007E-2"/>
+    <n v="20.5"/>
+    <n v="44.99"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="1"/>
+    <n v="7.0000000000000007E-2"/>
+    <n v="6.5"/>
+    <n v="17.989999999999998"/>
+    <n v="33"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="1"/>
+    <n v="7.0000000000000007E-2"/>
+    <n v="20.5"/>
+    <n v="44.99"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <n v="1"/>
+    <n v="7.0000000000000007E-2"/>
+    <n v="4.5"/>
+    <n v="14.49"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <n v="1"/>
+    <n v="0.12"/>
+    <n v="6.5"/>
+    <n v="17.989999999999998"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <n v="1"/>
+    <n v="0.12"/>
+    <n v="6.5"/>
+    <n v="17.989999999999998"/>
+    <n v="25"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <n v="1"/>
+    <n v="0.12"/>
+    <n v="6.5"/>
+    <n v="17.989999999999998"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <n v="1"/>
+    <n v="0.17"/>
+    <n v="10.5"/>
+    <n v="24.99"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <n v="1"/>
+    <n v="0.17"/>
+    <n v="10.5"/>
+    <n v="24.99"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <n v="1"/>
+    <n v="0.17"/>
+    <n v="4.5"/>
+    <n v="14.49"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <n v="1"/>
+    <n v="7.0000000000000007E-2"/>
+    <n v="6.5"/>
+    <n v="17.989999999999998"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <n v="1"/>
+    <n v="7.0000000000000007E-2"/>
+    <n v="10.5"/>
+    <n v="24.99"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <n v="1"/>
+    <n v="0.12"/>
+    <n v="6.5"/>
+    <n v="17.989999999999998"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <n v="1"/>
+    <n v="0.12"/>
+    <n v="20.5"/>
+    <n v="44.99"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <n v="1"/>
+    <n v="0.12"/>
+    <n v="6.5"/>
+    <n v="17.989999999999998"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <n v="1"/>
+    <n v="0.12"/>
+    <n v="10.5"/>
+    <n v="24.99"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <n v="1"/>
+    <n v="0.12"/>
+    <n v="3.5"/>
+    <n v="13.49"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <n v="1"/>
+    <n v="7.0000000000000007E-2"/>
+    <n v="4.5"/>
+    <n v="14.49"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <n v="1"/>
+    <n v="0.17"/>
+    <n v="6.5"/>
+    <n v="17.989999999999998"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <n v="1"/>
+    <n v="0.17"/>
+    <n v="4.5"/>
+    <n v="14.49"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <n v="1"/>
+    <n v="0.12"/>
+    <n v="6.5"/>
+    <n v="17.989999999999998"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <n v="1"/>
+    <n v="0.12"/>
+    <n v="6.5"/>
+    <n v="17.989999999999998"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <n v="1"/>
+    <n v="0.12"/>
+    <n v="10.5"/>
+    <n v="24.99"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <n v="1"/>
+    <n v="7.0000000000000007E-2"/>
+    <n v="3.5"/>
+    <n v="13.49"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <n v="1"/>
+    <n v="7.0000000000000007E-2"/>
+    <n v="6.5"/>
+    <n v="17.989999999999998"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="36"/>
+    <n v="1"/>
+    <n v="7.0000000000000007E-2"/>
+    <n v="10.5"/>
+    <n v="24.99"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="36"/>
+    <n v="1"/>
+    <n v="0.12"/>
+    <n v="10.5"/>
+    <n v="24.99"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <n v="1"/>
+    <n v="0.12"/>
+    <n v="4.5"/>
+    <n v="14.49"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <n v="1"/>
+    <n v="0.12"/>
+    <n v="6.5"/>
+    <n v="17.989999999999998"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <n v="1"/>
+    <n v="0.17"/>
+    <n v="3.5"/>
+    <n v="13.49"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <n v="1"/>
+    <n v="0.17"/>
+    <n v="6.5"/>
+    <n v="17.989999999999998"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="41"/>
+    <n v="1"/>
+    <n v="7.0000000000000007E-2"/>
+    <n v="20.5"/>
+    <n v="44.99"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="42"/>
+    <n v="1"/>
+    <n v="7.0000000000000007E-2"/>
+    <n v="6.5"/>
+    <n v="17.989999999999998"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="43"/>
+    <n v="1"/>
+    <n v="7.0000000000000007E-2"/>
+    <n v="6.5"/>
+    <n v="17.989999999999998"/>
+    <n v="11"/>
+  </r>
+  <r>
+    <x v="44"/>
+    <n v="1"/>
+    <n v="0.12"/>
+    <n v="6.5"/>
+    <n v="17.989999999999998"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="45"/>
+    <n v="1"/>
+    <n v="0.12"/>
+    <n v="3.5"/>
+    <n v="13.49"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="45"/>
+    <n v="1"/>
+    <n v="0.12"/>
+    <n v="3.5"/>
+    <n v="13.49"/>
+    <n v="5"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D3586EF3-FE6A-41EE-A110-5AB3E0BCDA2E}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A1:F48" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="47">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="12"/>
+        <item x="11"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="47">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </colItems>
+  <dataFields count="5">
+    <dataField name="Average of Processing Time (in hours) per line per unit" fld="2" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Average of Raw Materials Cost per unit" fld="3" subtotal="average" baseField="0" baseItem="0" numFmtId="164"/>
+    <dataField name="Average of Retail Price per unit" fld="4" subtotal="average" baseField="0" baseItem="0" numFmtId="164"/>
+    <dataField name="Max of  Monthly Demand in units" fld="5" subtotal="max" baseField="0" baseItem="0" numFmtId="1"/>
+    <dataField name="Average of  Monthly Demand in units" fld="5" subtotal="average" baseField="0" baseItem="0" numFmtId="1"/>
+  </dataFields>
+  <formats count="10">
+    <format dxfId="9">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="8">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="7">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="6">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="5">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="4">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="3">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="2">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="1">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="4">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="0">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -659,8 +2542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3853,6 +5736,3214 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C50C34A3-AA3F-4E33-ADB9-4C2EBACC0AD1}">
+  <dimension ref="A1:H48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="C2" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="D2" s="3">
+        <v>17.989999999999998</v>
+      </c>
+      <c r="E2" s="6">
+        <v>20</v>
+      </c>
+      <c r="F2" s="8">
+        <v>12.333333333333334</v>
+      </c>
+      <c r="H2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="C3" s="3">
+        <v>10.5</v>
+      </c>
+      <c r="D3" s="3">
+        <v>24.99</v>
+      </c>
+      <c r="E3" s="6">
+        <v>10</v>
+      </c>
+      <c r="F3" s="8">
+        <v>7.666666666666667</v>
+      </c>
+      <c r="H3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="C4" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="D4" s="3">
+        <v>17.989999999999998</v>
+      </c>
+      <c r="E4" s="6">
+        <v>5</v>
+      </c>
+      <c r="F4" s="8">
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="H4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="C5" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="D5" s="3">
+        <v>17.989999999999998</v>
+      </c>
+      <c r="E5" s="6">
+        <v>7</v>
+      </c>
+      <c r="F5" s="8">
+        <v>6.333333333333333</v>
+      </c>
+      <c r="H5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C6" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="D6" s="3">
+        <v>17.989999999999998</v>
+      </c>
+      <c r="E6" s="6">
+        <v>6</v>
+      </c>
+      <c r="F6" s="8">
+        <v>3.3333333333333335</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C7" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="D7" s="3">
+        <v>13.49</v>
+      </c>
+      <c r="E7" s="6">
+        <v>8</v>
+      </c>
+      <c r="F7" s="8">
+        <v>4.666666666666667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C8" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>17.989999999999998</v>
+      </c>
+      <c r="E8" s="6">
+        <v>5</v>
+      </c>
+      <c r="F8" s="8">
+        <v>2.3333333333333335</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="C9" s="3">
+        <v>10.5</v>
+      </c>
+      <c r="D9" s="3">
+        <v>24.99</v>
+      </c>
+      <c r="E9" s="6">
+        <v>35</v>
+      </c>
+      <c r="F9" s="8">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="C10" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="D10" s="3">
+        <v>17.989999999999998</v>
+      </c>
+      <c r="E10" s="6">
+        <v>14</v>
+      </c>
+      <c r="F10" s="8">
+        <v>10.333333333333334</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="C11" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="D11" s="3">
+        <v>17.989999999999998</v>
+      </c>
+      <c r="E11" s="6">
+        <v>11</v>
+      </c>
+      <c r="F11" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="C12" s="3">
+        <v>20.5</v>
+      </c>
+      <c r="D12" s="3">
+        <v>44.99</v>
+      </c>
+      <c r="E12" s="6">
+        <v>7</v>
+      </c>
+      <c r="F12" s="8">
+        <v>4.666666666666667</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="C13" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="D13" s="3">
+        <v>13.49</v>
+      </c>
+      <c r="E13" s="6">
+        <v>29</v>
+      </c>
+      <c r="F13" s="8">
+        <v>18.333333333333332</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="C14" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="D14" s="3">
+        <v>17.989999999999998</v>
+      </c>
+      <c r="E14" s="6">
+        <v>3</v>
+      </c>
+      <c r="F14" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C15" s="3">
+        <v>20.5</v>
+      </c>
+      <c r="D15" s="3">
+        <v>44.99</v>
+      </c>
+      <c r="E15" s="6">
+        <v>18</v>
+      </c>
+      <c r="F15" s="8">
+        <v>12.333333333333334</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C16" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="D16" s="3">
+        <v>17.989999999999998</v>
+      </c>
+      <c r="E16" s="6">
+        <v>33</v>
+      </c>
+      <c r="F16" s="8">
+        <v>23.333333333333332</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C17" s="3">
+        <v>20.5</v>
+      </c>
+      <c r="D17" s="3">
+        <v>44.99</v>
+      </c>
+      <c r="E17" s="6">
+        <v>6</v>
+      </c>
+      <c r="F17" s="8">
+        <v>2.6666666666666665</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C18" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="D18" s="3">
+        <v>14.49</v>
+      </c>
+      <c r="E18" s="6">
+        <v>18</v>
+      </c>
+      <c r="F18" s="8">
+        <v>13.666666666666666</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="C19" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="D19" s="3">
+        <v>17.989999999999998</v>
+      </c>
+      <c r="E19" s="6">
+        <v>8</v>
+      </c>
+      <c r="F19" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="C20" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="D20" s="3">
+        <v>17.989999999999998</v>
+      </c>
+      <c r="E20" s="6">
+        <v>25</v>
+      </c>
+      <c r="F20" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="C21" s="3">
+        <v>10.5</v>
+      </c>
+      <c r="D21" s="3">
+        <v>24.99</v>
+      </c>
+      <c r="E21" s="6">
+        <v>4</v>
+      </c>
+      <c r="F21" s="8">
+        <v>1.3333333333333333</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="C22" s="3">
+        <v>10.5</v>
+      </c>
+      <c r="D22" s="3">
+        <v>24.99</v>
+      </c>
+      <c r="E22" s="6">
+        <v>5</v>
+      </c>
+      <c r="F22" s="8">
+        <v>2.6666666666666665</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="C23" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="D23" s="3">
+        <v>14.49</v>
+      </c>
+      <c r="E23" s="6">
+        <v>1</v>
+      </c>
+      <c r="F23" s="8">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C24" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="D24" s="3">
+        <v>17.989999999999998</v>
+      </c>
+      <c r="E24" s="6">
+        <v>2</v>
+      </c>
+      <c r="F24" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C25" s="3">
+        <v>10.5</v>
+      </c>
+      <c r="D25" s="3">
+        <v>24.99</v>
+      </c>
+      <c r="E25" s="6">
+        <v>6</v>
+      </c>
+      <c r="F25" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="C26" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="D26" s="3">
+        <v>17.989999999999998</v>
+      </c>
+      <c r="E26" s="6">
+        <v>2</v>
+      </c>
+      <c r="F26" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="C27" s="3">
+        <v>20.5</v>
+      </c>
+      <c r="D27" s="3">
+        <v>44.99</v>
+      </c>
+      <c r="E27" s="6">
+        <v>6</v>
+      </c>
+      <c r="F27" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="C28" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="D28" s="3">
+        <v>17.989999999999998</v>
+      </c>
+      <c r="E28" s="6">
+        <v>13</v>
+      </c>
+      <c r="F28" s="8">
+        <v>11.666666666666666</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="C29" s="3">
+        <v>10.5</v>
+      </c>
+      <c r="D29" s="3">
+        <v>24.99</v>
+      </c>
+      <c r="E29" s="6">
+        <v>5</v>
+      </c>
+      <c r="F29" s="8">
+        <v>4.333333333333333</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="C30" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="D30" s="3">
+        <v>13.49</v>
+      </c>
+      <c r="E30" s="6">
+        <v>12</v>
+      </c>
+      <c r="F30" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C31" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="D31" s="3">
+        <v>14.49</v>
+      </c>
+      <c r="E31" s="6">
+        <v>3</v>
+      </c>
+      <c r="F31" s="8">
+        <v>1.3333333333333333</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="C32" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="D32" s="3">
+        <v>17.989999999999998</v>
+      </c>
+      <c r="E32" s="6">
+        <v>18</v>
+      </c>
+      <c r="F32" s="8">
+        <v>11.666666666666666</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="C33" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="D33" s="3">
+        <v>14.49</v>
+      </c>
+      <c r="E33" s="6">
+        <v>1</v>
+      </c>
+      <c r="F33" s="8">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="C34" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="D34" s="3">
+        <v>17.989999999999998</v>
+      </c>
+      <c r="E34" s="6">
+        <v>7</v>
+      </c>
+      <c r="F34" s="8">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="C35" s="3">
+        <v>10.5</v>
+      </c>
+      <c r="D35" s="3">
+        <v>24.99</v>
+      </c>
+      <c r="E35" s="6">
+        <v>3</v>
+      </c>
+      <c r="F35" s="8">
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C36" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="D36" s="3">
+        <v>13.49</v>
+      </c>
+      <c r="E36" s="6">
+        <v>1</v>
+      </c>
+      <c r="F36" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C37" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="D37" s="3">
+        <v>17.989999999999998</v>
+      </c>
+      <c r="E37" s="6">
+        <v>0</v>
+      </c>
+      <c r="F37" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="5">
+        <v>9.5000000000000015E-2</v>
+      </c>
+      <c r="C38" s="3">
+        <v>10.5</v>
+      </c>
+      <c r="D38" s="3">
+        <v>24.99</v>
+      </c>
+      <c r="E38" s="6">
+        <v>7</v>
+      </c>
+      <c r="F38" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="C39" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="D39" s="3">
+        <v>14.49</v>
+      </c>
+      <c r="E39" s="6">
+        <v>4</v>
+      </c>
+      <c r="F39" s="8">
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="C40" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="D40" s="3">
+        <v>17.989999999999998</v>
+      </c>
+      <c r="E40" s="6">
+        <v>8</v>
+      </c>
+      <c r="F40" s="8">
+        <v>5.333333333333333</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="C41" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="D41" s="3">
+        <v>13.49</v>
+      </c>
+      <c r="E41" s="6">
+        <v>1</v>
+      </c>
+      <c r="F41" s="8">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="C42" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="D42" s="3">
+        <v>17.989999999999998</v>
+      </c>
+      <c r="E42" s="6">
+        <v>5</v>
+      </c>
+      <c r="F42" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C43" s="3">
+        <v>20.5</v>
+      </c>
+      <c r="D43" s="3">
+        <v>44.99</v>
+      </c>
+      <c r="E43" s="6">
+        <v>7</v>
+      </c>
+      <c r="F43" s="8">
+        <v>6.333333333333333</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C44" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="D44" s="3">
+        <v>17.989999999999998</v>
+      </c>
+      <c r="E44" s="6">
+        <v>3</v>
+      </c>
+      <c r="F44" s="8">
+        <v>2.3333333333333335</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C45" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="D45" s="3">
+        <v>17.989999999999998</v>
+      </c>
+      <c r="E45" s="6">
+        <v>11</v>
+      </c>
+      <c r="F45" s="8">
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="C46" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="D46" s="3">
+        <v>17.989999999999998</v>
+      </c>
+      <c r="E46" s="6">
+        <v>1</v>
+      </c>
+      <c r="F46" s="8">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="C47" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="D47" s="3">
+        <v>13.49</v>
+      </c>
+      <c r="E47" s="6">
+        <v>5</v>
+      </c>
+      <c r="F47" s="8">
+        <v>1.8333333333333333</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" s="5">
+        <v>0.11299999999999995</v>
+      </c>
+      <c r="C48" s="3">
+        <v>8</v>
+      </c>
+      <c r="D48" s="3">
+        <v>20.969999999999921</v>
+      </c>
+      <c r="E48" s="6">
+        <v>35</v>
+      </c>
+      <c r="F48" s="8">
+        <v>5.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:Y48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13:P14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="27.21875" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" customWidth="1"/>
+    <col min="9" max="9" width="12.21875" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" customWidth="1"/>
+    <col min="20" max="20" width="10.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" ht="72" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="str">
+        <f>PT!A1</f>
+        <v>Row Labels</v>
+      </c>
+      <c r="B1" s="9" t="str">
+        <f>PT!B1</f>
+        <v>Average of Processing Time (in hours) per line per unit</v>
+      </c>
+      <c r="C1" s="9" t="str">
+        <f>PT!C1</f>
+        <v>Average of Raw Materials Cost per unit</v>
+      </c>
+      <c r="D1" s="9" t="str">
+        <f>PT!D1</f>
+        <v>Average of Retail Price per unit</v>
+      </c>
+      <c r="E1" s="9" t="str">
+        <f>PT!E1</f>
+        <v>Max of  Monthly Demand in units</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="9" t="str">
+        <f>PT!F1</f>
+        <v>Average of  Monthly Demand in units</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y1" s="1"/>
+    </row>
+    <row r="2" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="str">
+        <f>PT!A2</f>
+        <v>AGR-51NG</v>
+      </c>
+      <c r="B2" s="5">
+        <f>PT!B2</f>
+        <v>0.12</v>
+      </c>
+      <c r="C2" s="3">
+        <f>PT!C2</f>
+        <v>6.5</v>
+      </c>
+      <c r="D2" s="3">
+        <f>PT!D2</f>
+        <v>17.989999999999998</v>
+      </c>
+      <c r="E2" s="6">
+        <f>PT!E2</f>
+        <v>20</v>
+      </c>
+      <c r="F2" s="21">
+        <f>B2*K2</f>
+        <v>12</v>
+      </c>
+      <c r="G2" s="6">
+        <f>PT!F2</f>
+        <v>12.333333333333334</v>
+      </c>
+      <c r="H2" s="23">
+        <f>(D2-(C2-B2*$V$2))*K2</f>
+        <v>1292.9999999999998</v>
+      </c>
+      <c r="I2" s="14">
+        <f>(B2*$V$2)*K2</f>
+        <v>144</v>
+      </c>
+      <c r="J2">
+        <f>C2*K2</f>
+        <v>650</v>
+      </c>
+      <c r="K2" s="15">
+        <v>100</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="T2" s="13">
+        <v>3000</v>
+      </c>
+      <c r="U2">
+        <v>40</v>
+      </c>
+      <c r="V2" s="13">
+        <v>12</v>
+      </c>
+      <c r="W2" s="14">
+        <f>U2*V2</f>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="str">
+        <f>PT!A3</f>
+        <v>BFF-58NG</v>
+      </c>
+      <c r="B3" s="5">
+        <f>PT!B3</f>
+        <v>0.12</v>
+      </c>
+      <c r="C3" s="3">
+        <f>PT!C3</f>
+        <v>10.5</v>
+      </c>
+      <c r="D3" s="3">
+        <f>PT!D3</f>
+        <v>24.99</v>
+      </c>
+      <c r="E3" s="6">
+        <f>PT!E3</f>
+        <v>10</v>
+      </c>
+      <c r="F3" s="21">
+        <f t="shared" ref="F3:F47" si="0">B3*K3</f>
+        <v>12</v>
+      </c>
+      <c r="G3" s="6">
+        <f>PT!F3</f>
+        <v>7.666666666666667</v>
+      </c>
+      <c r="H3" s="23">
+        <f t="shared" ref="H3:H47" si="1">(D3-(C3-B3*$V$2))*K3</f>
+        <v>1592.9999999999998</v>
+      </c>
+      <c r="I3" s="14">
+        <f t="shared" ref="I3:I47" si="2">(B3*$V$2)*K3</f>
+        <v>144</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J47" si="3">C3*K3</f>
+        <v>1050</v>
+      </c>
+      <c r="K3" s="15">
+        <v>100</v>
+      </c>
+      <c r="N3" s="19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="str">
+        <f>PT!A4</f>
+        <v>BOS-51NG</v>
+      </c>
+      <c r="B4" s="5">
+        <f>PT!B4</f>
+        <v>0.12</v>
+      </c>
+      <c r="C4" s="3">
+        <f>PT!C4</f>
+        <v>6.5</v>
+      </c>
+      <c r="D4" s="3">
+        <f>PT!D4</f>
+        <v>17.989999999999998</v>
+      </c>
+      <c r="E4" s="6">
+        <f>PT!E4</f>
+        <v>5</v>
+      </c>
+      <c r="F4" s="21">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="G4" s="6">
+        <f>PT!F4</f>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="H4" s="23">
+        <f t="shared" si="1"/>
+        <v>1292.9999999999998</v>
+      </c>
+      <c r="I4" s="14">
+        <f t="shared" si="2"/>
+        <v>144</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="3"/>
+        <v>650</v>
+      </c>
+      <c r="K4" s="15">
+        <v>100</v>
+      </c>
+      <c r="N4" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="str">
+        <f>PT!A5</f>
+        <v>BRI-51NG</v>
+      </c>
+      <c r="B5" s="5">
+        <f>PT!B5</f>
+        <v>0.12</v>
+      </c>
+      <c r="C5" s="3">
+        <f>PT!C5</f>
+        <v>6.5</v>
+      </c>
+      <c r="D5" s="3">
+        <f>PT!D5</f>
+        <v>17.989999999999998</v>
+      </c>
+      <c r="E5" s="6">
+        <f>PT!E5</f>
+        <v>7</v>
+      </c>
+      <c r="F5" s="21">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="G5" s="6">
+        <f>PT!F5</f>
+        <v>6.333333333333333</v>
+      </c>
+      <c r="H5" s="23">
+        <f t="shared" si="1"/>
+        <v>1292.9999999999998</v>
+      </c>
+      <c r="I5" s="14">
+        <f t="shared" si="2"/>
+        <v>144</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="3"/>
+        <v>650</v>
+      </c>
+      <c r="K5" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="str">
+        <f>PT!A6</f>
+        <v>BUB-51NG</v>
+      </c>
+      <c r="B6" s="5">
+        <f>PT!B6</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C6" s="3">
+        <f>PT!C6</f>
+        <v>6.5</v>
+      </c>
+      <c r="D6" s="3">
+        <f>PT!D6</f>
+        <v>17.989999999999998</v>
+      </c>
+      <c r="E6" s="6">
+        <f>PT!E6</f>
+        <v>6</v>
+      </c>
+      <c r="F6" s="21">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000009</v>
+      </c>
+      <c r="G6" s="6">
+        <f>PT!F6</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="H6" s="23">
+        <f t="shared" si="1"/>
+        <v>1232.9999999999998</v>
+      </c>
+      <c r="I6" s="14">
+        <f t="shared" si="2"/>
+        <v>84.000000000000014</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="3"/>
+        <v>650</v>
+      </c>
+      <c r="K6" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="str">
+        <f>PT!A7</f>
+        <v>CHE-47NG</v>
+      </c>
+      <c r="B7" s="5">
+        <f>PT!B7</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C7" s="3">
+        <f>PT!C7</f>
+        <v>3.5</v>
+      </c>
+      <c r="D7" s="3">
+        <f>PT!D7</f>
+        <v>13.49</v>
+      </c>
+      <c r="E7" s="6">
+        <f>PT!E7</f>
+        <v>8</v>
+      </c>
+      <c r="F7" s="21">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000009</v>
+      </c>
+      <c r="G7" s="6">
+        <f>PT!F7</f>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="H7" s="23">
+        <f t="shared" si="1"/>
+        <v>1083</v>
+      </c>
+      <c r="I7" s="14">
+        <f t="shared" si="2"/>
+        <v>84.000000000000014</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="3"/>
+        <v>350</v>
+      </c>
+      <c r="K7" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="str">
+        <f>PT!A8</f>
+        <v>CHO-51NG</v>
+      </c>
+      <c r="B8" s="5">
+        <f>PT!B8</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C8" s="3">
+        <f>PT!C8</f>
+        <v>6.5</v>
+      </c>
+      <c r="D8" s="3">
+        <f>PT!D8</f>
+        <v>17.989999999999998</v>
+      </c>
+      <c r="E8" s="6">
+        <f>PT!E8</f>
+        <v>5</v>
+      </c>
+      <c r="F8" s="21">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000009</v>
+      </c>
+      <c r="G8" s="6">
+        <f>PT!F8</f>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="H8" s="23">
+        <f t="shared" si="1"/>
+        <v>1232.9999999999998</v>
+      </c>
+      <c r="I8" s="14">
+        <f t="shared" si="2"/>
+        <v>84.000000000000014</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>650</v>
+      </c>
+      <c r="K8" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="str">
+        <f>PT!A9</f>
+        <v>COS-58NG</v>
+      </c>
+      <c r="B9" s="5">
+        <f>PT!B9</f>
+        <v>0.12</v>
+      </c>
+      <c r="C9" s="3">
+        <f>PT!C9</f>
+        <v>10.5</v>
+      </c>
+      <c r="D9" s="3">
+        <f>PT!D9</f>
+        <v>24.99</v>
+      </c>
+      <c r="E9" s="6">
+        <f>PT!E9</f>
+        <v>35</v>
+      </c>
+      <c r="F9" s="21">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="G9" s="6">
+        <f>PT!F9</f>
+        <v>27</v>
+      </c>
+      <c r="H9" s="23">
+        <f t="shared" si="1"/>
+        <v>1592.9999999999998</v>
+      </c>
+      <c r="I9" s="14">
+        <f t="shared" si="2"/>
+        <v>144</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="3"/>
+        <v>1050</v>
+      </c>
+      <c r="K9" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="str">
+        <f>PT!A10</f>
+        <v>CRE-51NG</v>
+      </c>
+      <c r="B10" s="5">
+        <f>PT!B10</f>
+        <v>0.12</v>
+      </c>
+      <c r="C10" s="3">
+        <f>PT!C10</f>
+        <v>6.5</v>
+      </c>
+      <c r="D10" s="3">
+        <f>PT!D10</f>
+        <v>17.989999999999998</v>
+      </c>
+      <c r="E10" s="6">
+        <f>PT!E10</f>
+        <v>14</v>
+      </c>
+      <c r="F10" s="21">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="G10" s="6">
+        <f>PT!F10</f>
+        <v>10.333333333333334</v>
+      </c>
+      <c r="H10" s="23">
+        <f t="shared" si="1"/>
+        <v>1292.9999999999998</v>
+      </c>
+      <c r="I10" s="14">
+        <f t="shared" si="2"/>
+        <v>144</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="3"/>
+        <v>650</v>
+      </c>
+      <c r="K10" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="str">
+        <f>PT!A11</f>
+        <v>DET-51NG</v>
+      </c>
+      <c r="B11" s="5">
+        <f>PT!B11</f>
+        <v>0.12</v>
+      </c>
+      <c r="C11" s="3">
+        <f>PT!C11</f>
+        <v>6.5</v>
+      </c>
+      <c r="D11" s="3">
+        <f>PT!D11</f>
+        <v>17.989999999999998</v>
+      </c>
+      <c r="E11" s="6">
+        <f>PT!E11</f>
+        <v>11</v>
+      </c>
+      <c r="F11" s="21">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="G11" s="6">
+        <f>PT!F11</f>
+        <v>6</v>
+      </c>
+      <c r="H11" s="23">
+        <f t="shared" si="1"/>
+        <v>1292.9999999999998</v>
+      </c>
+      <c r="I11" s="14">
+        <f t="shared" si="2"/>
+        <v>144</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="3"/>
+        <v>650</v>
+      </c>
+      <c r="K11" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="str">
+        <f>PT!A12</f>
+        <v>EXC-78NG</v>
+      </c>
+      <c r="B12" s="5">
+        <f>PT!B12</f>
+        <v>0.12</v>
+      </c>
+      <c r="C12" s="3">
+        <f>PT!C12</f>
+        <v>20.5</v>
+      </c>
+      <c r="D12" s="3">
+        <f>PT!D12</f>
+        <v>44.99</v>
+      </c>
+      <c r="E12" s="6">
+        <f>PT!E12</f>
+        <v>7</v>
+      </c>
+      <c r="F12" s="21">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="G12" s="6">
+        <f>PT!F12</f>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="H12" s="23">
+        <f t="shared" si="1"/>
+        <v>2593.0000000000005</v>
+      </c>
+      <c r="I12" s="14">
+        <f t="shared" si="2"/>
+        <v>144</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="3"/>
+        <v>2050</v>
+      </c>
+      <c r="K12" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="str">
+        <f>PT!A13</f>
+        <v>EXP-47NG</v>
+      </c>
+      <c r="B13" s="5">
+        <f>PT!B13</f>
+        <v>0.17</v>
+      </c>
+      <c r="C13" s="3">
+        <f>PT!C13</f>
+        <v>3.5</v>
+      </c>
+      <c r="D13" s="3">
+        <f>PT!D13</f>
+        <v>13.49</v>
+      </c>
+      <c r="E13" s="6">
+        <f>PT!E13</f>
+        <v>29</v>
+      </c>
+      <c r="F13" s="21">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="G13" s="6">
+        <f>PT!F13</f>
+        <v>18.333333333333332</v>
+      </c>
+      <c r="H13" s="23">
+        <f t="shared" si="1"/>
+        <v>1203</v>
+      </c>
+      <c r="I13" s="14">
+        <f t="shared" si="2"/>
+        <v>204</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="3"/>
+        <v>350</v>
+      </c>
+      <c r="K13" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="str">
+        <f>PT!A14</f>
+        <v>EXP-51NG</v>
+      </c>
+      <c r="B14" s="5">
+        <f>PT!B14</f>
+        <v>0.17</v>
+      </c>
+      <c r="C14" s="3">
+        <f>PT!C14</f>
+        <v>6.5</v>
+      </c>
+      <c r="D14" s="3">
+        <f>PT!D14</f>
+        <v>17.989999999999998</v>
+      </c>
+      <c r="E14" s="6">
+        <f>PT!E14</f>
+        <v>3</v>
+      </c>
+      <c r="F14" s="21">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="G14" s="6">
+        <f>PT!F14</f>
+        <v>2</v>
+      </c>
+      <c r="H14" s="23">
+        <f t="shared" si="1"/>
+        <v>1352.9999999999998</v>
+      </c>
+      <c r="I14" s="14">
+        <f t="shared" si="2"/>
+        <v>204</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="3"/>
+        <v>650</v>
+      </c>
+      <c r="K14" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="str">
+        <f>PT!A15</f>
+        <v>FAS-78NG</v>
+      </c>
+      <c r="B15" s="5">
+        <f>PT!B15</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C15" s="3">
+        <f>PT!C15</f>
+        <v>20.5</v>
+      </c>
+      <c r="D15" s="3">
+        <f>PT!D15</f>
+        <v>44.99</v>
+      </c>
+      <c r="E15" s="6">
+        <f>PT!E15</f>
+        <v>18</v>
+      </c>
+      <c r="F15" s="21">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000009</v>
+      </c>
+      <c r="G15" s="6">
+        <f>PT!F15</f>
+        <v>12.333333333333334</v>
+      </c>
+      <c r="H15" s="23">
+        <f t="shared" si="1"/>
+        <v>2533</v>
+      </c>
+      <c r="I15" s="14">
+        <f t="shared" si="2"/>
+        <v>84.000000000000014</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="3"/>
+        <v>2050</v>
+      </c>
+      <c r="K15" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" t="str">
+        <f>PT!A16</f>
+        <v>FEI-51NG</v>
+      </c>
+      <c r="B16" s="5">
+        <f>PT!B16</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C16" s="3">
+        <f>PT!C16</f>
+        <v>6.5</v>
+      </c>
+      <c r="D16" s="3">
+        <f>PT!D16</f>
+        <v>17.989999999999998</v>
+      </c>
+      <c r="E16" s="6">
+        <f>PT!E16</f>
+        <v>33</v>
+      </c>
+      <c r="F16" s="21">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000009</v>
+      </c>
+      <c r="G16" s="6">
+        <f>PT!F16</f>
+        <v>23.333333333333332</v>
+      </c>
+      <c r="H16" s="23">
+        <f t="shared" si="1"/>
+        <v>1232.9999999999998</v>
+      </c>
+      <c r="I16" s="14">
+        <f t="shared" si="2"/>
+        <v>84.000000000000014</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="3"/>
+        <v>650</v>
+      </c>
+      <c r="K16" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" t="str">
+        <f>PT!A17</f>
+        <v>FIE-78NG</v>
+      </c>
+      <c r="B17" s="5">
+        <f>PT!B17</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C17" s="3">
+        <f>PT!C17</f>
+        <v>20.5</v>
+      </c>
+      <c r="D17" s="3">
+        <f>PT!D17</f>
+        <v>44.99</v>
+      </c>
+      <c r="E17" s="6">
+        <f>PT!E17</f>
+        <v>6</v>
+      </c>
+      <c r="F17" s="21">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000009</v>
+      </c>
+      <c r="G17" s="6">
+        <f>PT!F17</f>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="H17" s="23">
+        <f t="shared" si="1"/>
+        <v>2533</v>
+      </c>
+      <c r="I17" s="14">
+        <f t="shared" si="2"/>
+        <v>84.000000000000014</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="3"/>
+        <v>2050</v>
+      </c>
+      <c r="K17" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" t="str">
+        <f>PT!A18</f>
+        <v>FLA-48RS</v>
+      </c>
+      <c r="B18" s="5">
+        <f>PT!B18</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C18" s="3">
+        <f>PT!C18</f>
+        <v>4.5</v>
+      </c>
+      <c r="D18" s="3">
+        <f>PT!D18</f>
+        <v>14.49</v>
+      </c>
+      <c r="E18" s="6">
+        <f>PT!E18</f>
+        <v>18</v>
+      </c>
+      <c r="F18" s="21">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000009</v>
+      </c>
+      <c r="G18" s="6">
+        <f>PT!F18</f>
+        <v>13.666666666666666</v>
+      </c>
+      <c r="H18" s="23">
+        <f t="shared" si="1"/>
+        <v>1083</v>
+      </c>
+      <c r="I18" s="14">
+        <f t="shared" si="2"/>
+        <v>84.000000000000014</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="3"/>
+        <v>450</v>
+      </c>
+      <c r="K18" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="str">
+        <f>PT!A19</f>
+        <v>FOX-51NG</v>
+      </c>
+      <c r="B19" s="5">
+        <f>PT!B19</f>
+        <v>0.12</v>
+      </c>
+      <c r="C19" s="3">
+        <f>PT!C19</f>
+        <v>6.5</v>
+      </c>
+      <c r="D19" s="3">
+        <f>PT!D19</f>
+        <v>17.989999999999998</v>
+      </c>
+      <c r="E19" s="6">
+        <f>PT!E19</f>
+        <v>8</v>
+      </c>
+      <c r="F19" s="21">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="G19" s="6">
+        <f>PT!F19</f>
+        <v>7</v>
+      </c>
+      <c r="H19" s="23">
+        <f t="shared" si="1"/>
+        <v>1292.9999999999998</v>
+      </c>
+      <c r="I19" s="14">
+        <f t="shared" si="2"/>
+        <v>144</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="3"/>
+        <v>650</v>
+      </c>
+      <c r="K19" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" t="str">
+        <f>PT!A20</f>
+        <v>FUN-51NG</v>
+      </c>
+      <c r="B20" s="5">
+        <f>PT!B20</f>
+        <v>0.12</v>
+      </c>
+      <c r="C20" s="3">
+        <f>PT!C20</f>
+        <v>6.5</v>
+      </c>
+      <c r="D20" s="3">
+        <f>PT!D20</f>
+        <v>17.989999999999998</v>
+      </c>
+      <c r="E20" s="6">
+        <f>PT!E20</f>
+        <v>25</v>
+      </c>
+      <c r="F20" s="21">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="G20" s="6">
+        <f>PT!F20</f>
+        <v>9</v>
+      </c>
+      <c r="H20" s="23">
+        <f t="shared" si="1"/>
+        <v>1292.9999999999998</v>
+      </c>
+      <c r="I20" s="14">
+        <f t="shared" si="2"/>
+        <v>144</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="3"/>
+        <v>650</v>
+      </c>
+      <c r="K20" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" t="str">
+        <f>PT!A21</f>
+        <v>GO -58NG</v>
+      </c>
+      <c r="B21" s="5">
+        <f>PT!B21</f>
+        <v>0.17</v>
+      </c>
+      <c r="C21" s="3">
+        <f>PT!C21</f>
+        <v>10.5</v>
+      </c>
+      <c r="D21" s="3">
+        <f>PT!D21</f>
+        <v>24.99</v>
+      </c>
+      <c r="E21" s="6">
+        <f>PT!E21</f>
+        <v>4</v>
+      </c>
+      <c r="F21" s="21">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="G21" s="6">
+        <f>PT!F21</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="H21" s="23">
+        <f t="shared" si="1"/>
+        <v>1652.9999999999998</v>
+      </c>
+      <c r="I21" s="14">
+        <f t="shared" si="2"/>
+        <v>204</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="3"/>
+        <v>1050</v>
+      </c>
+      <c r="K21" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" t="str">
+        <f>PT!A22</f>
+        <v>GOT-58NG</v>
+      </c>
+      <c r="B22" s="5">
+        <f>PT!B22</f>
+        <v>0.17</v>
+      </c>
+      <c r="C22" s="3">
+        <f>PT!C22</f>
+        <v>10.5</v>
+      </c>
+      <c r="D22" s="3">
+        <f>PT!D22</f>
+        <v>24.99</v>
+      </c>
+      <c r="E22" s="6">
+        <f>PT!E22</f>
+        <v>5</v>
+      </c>
+      <c r="F22" s="21">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="G22" s="6">
+        <f>PT!F22</f>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="H22" s="23">
+        <f t="shared" si="1"/>
+        <v>1652.9999999999998</v>
+      </c>
+      <c r="I22" s="14">
+        <f t="shared" si="2"/>
+        <v>204</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="3"/>
+        <v>1050</v>
+      </c>
+      <c r="K22" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" t="str">
+        <f>PT!A23</f>
+        <v>HAP-48NG</v>
+      </c>
+      <c r="B23" s="5">
+        <f>PT!B23</f>
+        <v>0.17</v>
+      </c>
+      <c r="C23" s="3">
+        <f>PT!C23</f>
+        <v>4.5</v>
+      </c>
+      <c r="D23" s="3">
+        <f>PT!D23</f>
+        <v>14.49</v>
+      </c>
+      <c r="E23" s="6">
+        <f>PT!E23</f>
+        <v>1</v>
+      </c>
+      <c r="F23" s="21">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="G23" s="6">
+        <f>PT!F23</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H23" s="23">
+        <f t="shared" si="1"/>
+        <v>1203</v>
+      </c>
+      <c r="I23" s="14">
+        <f t="shared" si="2"/>
+        <v>204</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="3"/>
+        <v>450</v>
+      </c>
+      <c r="K23" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" t="str">
+        <f>PT!A24</f>
+        <v>HIG-51ED</v>
+      </c>
+      <c r="B24" s="5">
+        <f>PT!B24</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C24" s="3">
+        <f>PT!C24</f>
+        <v>6.5</v>
+      </c>
+      <c r="D24" s="3">
+        <f>PT!D24</f>
+        <v>17.989999999999998</v>
+      </c>
+      <c r="E24" s="6">
+        <f>PT!E24</f>
+        <v>2</v>
+      </c>
+      <c r="F24" s="21">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000009</v>
+      </c>
+      <c r="G24" s="6">
+        <f>PT!F24</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H24" s="23">
+        <f t="shared" si="1"/>
+        <v>1232.9999999999998</v>
+      </c>
+      <c r="I24" s="14">
+        <f t="shared" si="2"/>
+        <v>84.000000000000014</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="3"/>
+        <v>650</v>
+      </c>
+      <c r="K24" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" t="str">
+        <f>PT!A25</f>
+        <v>INQ-58NG</v>
+      </c>
+      <c r="B25" s="5">
+        <f>PT!B25</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C25" s="3">
+        <f>PT!C25</f>
+        <v>10.5</v>
+      </c>
+      <c r="D25" s="3">
+        <f>PT!D25</f>
+        <v>24.99</v>
+      </c>
+      <c r="E25" s="6">
+        <f>PT!E25</f>
+        <v>6</v>
+      </c>
+      <c r="F25" s="21">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000009</v>
+      </c>
+      <c r="G25" s="6">
+        <f>PT!F25</f>
+        <v>3</v>
+      </c>
+      <c r="H25" s="23">
+        <f t="shared" si="1"/>
+        <v>1532.9999999999998</v>
+      </c>
+      <c r="I25" s="14">
+        <f t="shared" si="2"/>
+        <v>84.000000000000014</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="3"/>
+        <v>1050</v>
+      </c>
+      <c r="K25" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" t="str">
+        <f>PT!A26</f>
+        <v>INS-51NG</v>
+      </c>
+      <c r="B26" s="5">
+        <f>PT!B26</f>
+        <v>0.12</v>
+      </c>
+      <c r="C26" s="3">
+        <f>PT!C26</f>
+        <v>6.5</v>
+      </c>
+      <c r="D26" s="3">
+        <f>PT!D26</f>
+        <v>17.989999999999998</v>
+      </c>
+      <c r="E26" s="6">
+        <f>PT!E26</f>
+        <v>2</v>
+      </c>
+      <c r="F26" s="21">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="G26" s="6">
+        <f>PT!F26</f>
+        <v>1</v>
+      </c>
+      <c r="H26" s="23">
+        <f t="shared" si="1"/>
+        <v>1292.9999999999998</v>
+      </c>
+      <c r="I26" s="14">
+        <f t="shared" si="2"/>
+        <v>144</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="3"/>
+        <v>650</v>
+      </c>
+      <c r="K26" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" t="str">
+        <f>PT!A27</f>
+        <v xml:space="preserve">INT-78G </v>
+      </c>
+      <c r="B27" s="5">
+        <f>PT!B27</f>
+        <v>0.12</v>
+      </c>
+      <c r="C27" s="3">
+        <f>PT!C27</f>
+        <v>20.5</v>
+      </c>
+      <c r="D27" s="3">
+        <f>PT!D27</f>
+        <v>44.99</v>
+      </c>
+      <c r="E27" s="6">
+        <f>PT!E27</f>
+        <v>6</v>
+      </c>
+      <c r="F27" s="21">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="G27" s="6">
+        <f>PT!F27</f>
+        <v>5</v>
+      </c>
+      <c r="H27" s="23">
+        <f t="shared" si="1"/>
+        <v>2593.0000000000005</v>
+      </c>
+      <c r="I27" s="14">
+        <f t="shared" si="2"/>
+        <v>144</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="3"/>
+        <v>2050</v>
+      </c>
+      <c r="K27" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" t="str">
+        <f>PT!A28</f>
+        <v>INV-51NG</v>
+      </c>
+      <c r="B28" s="5">
+        <f>PT!B28</f>
+        <v>0.12</v>
+      </c>
+      <c r="C28" s="3">
+        <f>PT!C28</f>
+        <v>6.5</v>
+      </c>
+      <c r="D28" s="3">
+        <f>PT!D28</f>
+        <v>17.989999999999998</v>
+      </c>
+      <c r="E28" s="6">
+        <f>PT!E28</f>
+        <v>13</v>
+      </c>
+      <c r="F28" s="21">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="G28" s="6">
+        <f>PT!F28</f>
+        <v>11.666666666666666</v>
+      </c>
+      <c r="H28" s="23">
+        <f t="shared" si="1"/>
+        <v>1292.9999999999998</v>
+      </c>
+      <c r="I28" s="14">
+        <f t="shared" si="2"/>
+        <v>144</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="3"/>
+        <v>650</v>
+      </c>
+      <c r="K28" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" t="str">
+        <f>PT!A29</f>
+        <v>ITS-58NG</v>
+      </c>
+      <c r="B29" s="5">
+        <f>PT!B29</f>
+        <v>0.12</v>
+      </c>
+      <c r="C29" s="3">
+        <f>PT!C29</f>
+        <v>10.5</v>
+      </c>
+      <c r="D29" s="3">
+        <f>PT!D29</f>
+        <v>24.99</v>
+      </c>
+      <c r="E29" s="6">
+        <f>PT!E29</f>
+        <v>5</v>
+      </c>
+      <c r="F29" s="21">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="G29" s="6">
+        <f>PT!F29</f>
+        <v>4.333333333333333</v>
+      </c>
+      <c r="H29" s="23">
+        <f t="shared" si="1"/>
+        <v>1592.9999999999998</v>
+      </c>
+      <c r="I29" s="14">
+        <f t="shared" si="2"/>
+        <v>144</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="3"/>
+        <v>1050</v>
+      </c>
+      <c r="K29" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" t="str">
+        <f>PT!A30</f>
+        <v xml:space="preserve">KHA-47G </v>
+      </c>
+      <c r="B30" s="5">
+        <f>PT!B30</f>
+        <v>0.12</v>
+      </c>
+      <c r="C30" s="3">
+        <f>PT!C30</f>
+        <v>3.5</v>
+      </c>
+      <c r="D30" s="3">
+        <f>PT!D30</f>
+        <v>13.49</v>
+      </c>
+      <c r="E30" s="6">
+        <f>PT!E30</f>
+        <v>12</v>
+      </c>
+      <c r="F30" s="21">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="G30" s="6">
+        <f>PT!F30</f>
+        <v>5</v>
+      </c>
+      <c r="H30" s="23">
+        <f t="shared" si="1"/>
+        <v>1143</v>
+      </c>
+      <c r="I30" s="14">
+        <f t="shared" si="2"/>
+        <v>144</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="3"/>
+        <v>350</v>
+      </c>
+      <c r="K30" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" t="str">
+        <f>PT!A31</f>
+        <v>LAR-48NG</v>
+      </c>
+      <c r="B31" s="5">
+        <f>PT!B31</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C31" s="3">
+        <f>PT!C31</f>
+        <v>4.5</v>
+      </c>
+      <c r="D31" s="3">
+        <f>PT!D31</f>
+        <v>14.49</v>
+      </c>
+      <c r="E31" s="6">
+        <f>PT!E31</f>
+        <v>3</v>
+      </c>
+      <c r="F31" s="21">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000009</v>
+      </c>
+      <c r="G31" s="6">
+        <f>PT!F31</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="H31" s="23">
+        <f t="shared" si="1"/>
+        <v>1083</v>
+      </c>
+      <c r="I31" s="14">
+        <f t="shared" si="2"/>
+        <v>84.000000000000014</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="3"/>
+        <v>450</v>
+      </c>
+      <c r="K31" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" t="str">
+        <f>PT!A32</f>
+        <v>LIV-51NG</v>
+      </c>
+      <c r="B32" s="5">
+        <f>PT!B32</f>
+        <v>0.17</v>
+      </c>
+      <c r="C32" s="3">
+        <f>PT!C32</f>
+        <v>6.5</v>
+      </c>
+      <c r="D32" s="3">
+        <f>PT!D32</f>
+        <v>17.989999999999998</v>
+      </c>
+      <c r="E32" s="6">
+        <f>PT!E32</f>
+        <v>18</v>
+      </c>
+      <c r="F32" s="21">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="G32" s="6">
+        <f>PT!F32</f>
+        <v>11.666666666666666</v>
+      </c>
+      <c r="H32" s="23">
+        <f t="shared" si="1"/>
+        <v>1352.9999999999998</v>
+      </c>
+      <c r="I32" s="14">
+        <f t="shared" si="2"/>
+        <v>204</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="3"/>
+        <v>650</v>
+      </c>
+      <c r="K32" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" t="str">
+        <f>PT!A33</f>
+        <v>NO -48NG</v>
+      </c>
+      <c r="B33" s="5">
+        <f>PT!B33</f>
+        <v>0.17</v>
+      </c>
+      <c r="C33" s="3">
+        <f>PT!C33</f>
+        <v>4.5</v>
+      </c>
+      <c r="D33" s="3">
+        <f>PT!D33</f>
+        <v>14.49</v>
+      </c>
+      <c r="E33" s="6">
+        <f>PT!E33</f>
+        <v>1</v>
+      </c>
+      <c r="F33" s="21">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="G33" s="6">
+        <f>PT!F33</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H33" s="23">
+        <f t="shared" si="1"/>
+        <v>1203</v>
+      </c>
+      <c r="I33" s="14">
+        <f t="shared" si="2"/>
+        <v>204</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="3"/>
+        <v>450</v>
+      </c>
+      <c r="K33" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" t="str">
+        <f>PT!A34</f>
+        <v>NON-51NG</v>
+      </c>
+      <c r="B34" s="5">
+        <f>PT!B34</f>
+        <v>0.12</v>
+      </c>
+      <c r="C34" s="3">
+        <f>PT!C34</f>
+        <v>6.5</v>
+      </c>
+      <c r="D34" s="3">
+        <f>PT!D34</f>
+        <v>17.989999999999998</v>
+      </c>
+      <c r="E34" s="6">
+        <f>PT!E34</f>
+        <v>7</v>
+      </c>
+      <c r="F34" s="21">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="G34" s="6">
+        <f>PT!F34</f>
+        <v>4.5</v>
+      </c>
+      <c r="H34" s="23">
+        <f t="shared" si="1"/>
+        <v>1292.9999999999998</v>
+      </c>
+      <c r="I34" s="14">
+        <f t="shared" si="2"/>
+        <v>144</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="3"/>
+        <v>650</v>
+      </c>
+      <c r="K34" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" t="str">
+        <f>PT!A35</f>
+        <v>NOT-58NG</v>
+      </c>
+      <c r="B35" s="5">
+        <f>PT!B35</f>
+        <v>0.12</v>
+      </c>
+      <c r="C35" s="3">
+        <f>PT!C35</f>
+        <v>10.5</v>
+      </c>
+      <c r="D35" s="3">
+        <f>PT!D35</f>
+        <v>24.99</v>
+      </c>
+      <c r="E35" s="6">
+        <f>PT!E35</f>
+        <v>3</v>
+      </c>
+      <c r="F35" s="21">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="G35" s="6">
+        <f>PT!F35</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="H35" s="23">
+        <f t="shared" si="1"/>
+        <v>1592.9999999999998</v>
+      </c>
+      <c r="I35" s="14">
+        <f t="shared" si="2"/>
+        <v>144</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="3"/>
+        <v>1050</v>
+      </c>
+      <c r="K35" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" t="str">
+        <f>PT!A36</f>
+        <v>NUT-47NG</v>
+      </c>
+      <c r="B36" s="5">
+        <f>PT!B36</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C36" s="3">
+        <f>PT!C36</f>
+        <v>3.5</v>
+      </c>
+      <c r="D36" s="3">
+        <f>PT!D36</f>
+        <v>13.49</v>
+      </c>
+      <c r="E36" s="6">
+        <f>PT!E36</f>
+        <v>1</v>
+      </c>
+      <c r="F36" s="21">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000009</v>
+      </c>
+      <c r="G36" s="6">
+        <f>PT!F36</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H36" s="23">
+        <f t="shared" si="1"/>
+        <v>1083</v>
+      </c>
+      <c r="I36" s="14">
+        <f t="shared" si="2"/>
+        <v>84.000000000000014</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="3"/>
+        <v>350</v>
+      </c>
+      <c r="K36" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" t="str">
+        <f>PT!A37</f>
+        <v>OCT-51NG</v>
+      </c>
+      <c r="B37" s="5">
+        <f>PT!B37</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C37" s="3">
+        <f>PT!C37</f>
+        <v>6.5</v>
+      </c>
+      <c r="D37" s="3">
+        <f>PT!D37</f>
+        <v>17.989999999999998</v>
+      </c>
+      <c r="E37" s="6">
+        <f>PT!E37</f>
+        <v>0</v>
+      </c>
+      <c r="F37" s="21">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000009</v>
+      </c>
+      <c r="G37" s="6">
+        <f>PT!F37</f>
+        <v>0</v>
+      </c>
+      <c r="H37" s="23">
+        <f t="shared" si="1"/>
+        <v>1232.9999999999998</v>
+      </c>
+      <c r="I37" s="14">
+        <f t="shared" si="2"/>
+        <v>84.000000000000014</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="3"/>
+        <v>650</v>
+      </c>
+      <c r="K37" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" t="str">
+        <f>PT!A38</f>
+        <v>ON -58NG</v>
+      </c>
+      <c r="B38" s="5">
+        <f>PT!B38</f>
+        <v>9.5000000000000015E-2</v>
+      </c>
+      <c r="C38" s="3">
+        <f>PT!C38</f>
+        <v>10.5</v>
+      </c>
+      <c r="D38" s="3">
+        <f>PT!D38</f>
+        <v>24.99</v>
+      </c>
+      <c r="E38" s="6">
+        <f>PT!E38</f>
+        <v>7</v>
+      </c>
+      <c r="F38" s="21">
+        <f t="shared" si="0"/>
+        <v>9.5000000000000018</v>
+      </c>
+      <c r="G38" s="6">
+        <f>PT!F38</f>
+        <v>3</v>
+      </c>
+      <c r="H38" s="23">
+        <f t="shared" si="1"/>
+        <v>1563</v>
+      </c>
+      <c r="I38" s="14">
+        <f t="shared" si="2"/>
+        <v>114.00000000000001</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="3"/>
+        <v>1050</v>
+      </c>
+      <c r="K38" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" t="str">
+        <f>PT!A39</f>
+        <v>PEA-48NG</v>
+      </c>
+      <c r="B39" s="5">
+        <f>PT!B39</f>
+        <v>0.12</v>
+      </c>
+      <c r="C39" s="3">
+        <f>PT!C39</f>
+        <v>4.5</v>
+      </c>
+      <c r="D39" s="3">
+        <f>PT!D39</f>
+        <v>14.49</v>
+      </c>
+      <c r="E39" s="6">
+        <f>PT!E39</f>
+        <v>4</v>
+      </c>
+      <c r="F39" s="21">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="G39" s="6">
+        <f>PT!F39</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="H39" s="23">
+        <f t="shared" si="1"/>
+        <v>1143</v>
+      </c>
+      <c r="I39" s="14">
+        <f t="shared" si="2"/>
+        <v>144</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="3"/>
+        <v>450</v>
+      </c>
+      <c r="K39" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" t="str">
+        <f>PT!A40</f>
+        <v>PEA-51NG</v>
+      </c>
+      <c r="B40" s="5">
+        <f>PT!B40</f>
+        <v>0.12</v>
+      </c>
+      <c r="C40" s="3">
+        <f>PT!C40</f>
+        <v>6.5</v>
+      </c>
+      <c r="D40" s="3">
+        <f>PT!D40</f>
+        <v>17.989999999999998</v>
+      </c>
+      <c r="E40" s="6">
+        <f>PT!E40</f>
+        <v>8</v>
+      </c>
+      <c r="F40" s="21">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="G40" s="6">
+        <f>PT!F40</f>
+        <v>5.333333333333333</v>
+      </c>
+      <c r="H40" s="23">
+        <f t="shared" si="1"/>
+        <v>1292.9999999999998</v>
+      </c>
+      <c r="I40" s="14">
+        <f t="shared" si="2"/>
+        <v>144</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="3"/>
+        <v>650</v>
+      </c>
+      <c r="K40" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" t="str">
+        <f>PT!A41</f>
+        <v>PEC-47NG</v>
+      </c>
+      <c r="B41" s="5">
+        <f>PT!B41</f>
+        <v>0.17</v>
+      </c>
+      <c r="C41" s="3">
+        <f>PT!C41</f>
+        <v>3.5</v>
+      </c>
+      <c r="D41" s="3">
+        <f>PT!D41</f>
+        <v>13.49</v>
+      </c>
+      <c r="E41" s="6">
+        <f>PT!E41</f>
+        <v>1</v>
+      </c>
+      <c r="F41" s="21">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="G41" s="6">
+        <f>PT!F41</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H41" s="23">
+        <f t="shared" si="1"/>
+        <v>1203</v>
+      </c>
+      <c r="I41" s="14">
+        <f t="shared" si="2"/>
+        <v>204</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="3"/>
+        <v>350</v>
+      </c>
+      <c r="K41" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" t="str">
+        <f>PT!A42</f>
+        <v>PER-51NG</v>
+      </c>
+      <c r="B42" s="5">
+        <f>PT!B42</f>
+        <v>0.17</v>
+      </c>
+      <c r="C42" s="3">
+        <f>PT!C42</f>
+        <v>6.5</v>
+      </c>
+      <c r="D42" s="3">
+        <f>PT!D42</f>
+        <v>17.989999999999998</v>
+      </c>
+      <c r="E42" s="6">
+        <f>PT!E42</f>
+        <v>5</v>
+      </c>
+      <c r="F42" s="21">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="G42" s="6">
+        <f>PT!F42</f>
+        <v>3</v>
+      </c>
+      <c r="H42" s="23">
+        <f t="shared" si="1"/>
+        <v>1352.9999999999998</v>
+      </c>
+      <c r="I42" s="14">
+        <f t="shared" si="2"/>
+        <v>204</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="3"/>
+        <v>650</v>
+      </c>
+      <c r="K42" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" t="str">
+        <f>PT!A43</f>
+        <v>PRE-78NG</v>
+      </c>
+      <c r="B43" s="5">
+        <f>PT!B43</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C43" s="3">
+        <f>PT!C43</f>
+        <v>20.5</v>
+      </c>
+      <c r="D43" s="3">
+        <f>PT!D43</f>
+        <v>44.99</v>
+      </c>
+      <c r="E43" s="6">
+        <f>PT!E43</f>
+        <v>7</v>
+      </c>
+      <c r="F43" s="21">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000009</v>
+      </c>
+      <c r="G43" s="6">
+        <f>PT!F43</f>
+        <v>6.333333333333333</v>
+      </c>
+      <c r="H43" s="23">
+        <f t="shared" si="1"/>
+        <v>2533</v>
+      </c>
+      <c r="I43" s="14">
+        <f t="shared" si="2"/>
+        <v>84.000000000000014</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="3"/>
+        <v>2050</v>
+      </c>
+      <c r="K43" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" t="str">
+        <f>PT!A44</f>
+        <v>REF-51NG</v>
+      </c>
+      <c r="B44" s="5">
+        <f>PT!B44</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C44" s="3">
+        <f>PT!C44</f>
+        <v>6.5</v>
+      </c>
+      <c r="D44" s="3">
+        <f>PT!D44</f>
+        <v>17.989999999999998</v>
+      </c>
+      <c r="E44" s="6">
+        <f>PT!E44</f>
+        <v>3</v>
+      </c>
+      <c r="F44" s="21">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000009</v>
+      </c>
+      <c r="G44" s="6">
+        <f>PT!F44</f>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="H44" s="23">
+        <f t="shared" si="1"/>
+        <v>1232.9999999999998</v>
+      </c>
+      <c r="I44" s="14">
+        <f t="shared" si="2"/>
+        <v>84.000000000000014</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="3"/>
+        <v>650</v>
+      </c>
+      <c r="K44" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" t="str">
+        <f>PT!A45</f>
+        <v>RES-51NG</v>
+      </c>
+      <c r="B45" s="5">
+        <f>PT!B45</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C45" s="3">
+        <f>PT!C45</f>
+        <v>6.5</v>
+      </c>
+      <c r="D45" s="3">
+        <f>PT!D45</f>
+        <v>17.989999999999998</v>
+      </c>
+      <c r="E45" s="6">
+        <f>PT!E45</f>
+        <v>11</v>
+      </c>
+      <c r="F45" s="21">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000009</v>
+      </c>
+      <c r="G45" s="6">
+        <f>PT!F45</f>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="H45" s="23">
+        <f t="shared" si="1"/>
+        <v>1232.9999999999998</v>
+      </c>
+      <c r="I45" s="14">
+        <f t="shared" si="2"/>
+        <v>84.000000000000014</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="3"/>
+        <v>650</v>
+      </c>
+      <c r="K45" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" t="str">
+        <f>PT!A46</f>
+        <v>ROY-51NG</v>
+      </c>
+      <c r="B46" s="5">
+        <f>PT!B46</f>
+        <v>0.12</v>
+      </c>
+      <c r="C46" s="3">
+        <f>PT!C46</f>
+        <v>6.5</v>
+      </c>
+      <c r="D46" s="3">
+        <f>PT!D46</f>
+        <v>17.989999999999998</v>
+      </c>
+      <c r="E46" s="6">
+        <f>PT!E46</f>
+        <v>1</v>
+      </c>
+      <c r="F46" s="21">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="G46" s="6">
+        <f>PT!F46</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H46" s="23">
+        <f t="shared" si="1"/>
+        <v>1292.9999999999998</v>
+      </c>
+      <c r="I46" s="14">
+        <f t="shared" si="2"/>
+        <v>144</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="3"/>
+        <v>650</v>
+      </c>
+      <c r="K46" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" t="str">
+        <f>PT!A47</f>
+        <v>SIE-47NG</v>
+      </c>
+      <c r="B47" s="5">
+        <f>PT!B47</f>
+        <v>0.12</v>
+      </c>
+      <c r="C47" s="3">
+        <f>PT!C47</f>
+        <v>3.5</v>
+      </c>
+      <c r="D47" s="3">
+        <f>PT!D47</f>
+        <v>13.49</v>
+      </c>
+      <c r="E47" s="6">
+        <f>PT!E47</f>
+        <v>5</v>
+      </c>
+      <c r="F47" s="21">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="G47" s="6">
+        <f>PT!F47</f>
+        <v>1.8333333333333333</v>
+      </c>
+      <c r="H47" s="23">
+        <f t="shared" si="1"/>
+        <v>1143</v>
+      </c>
+      <c r="I47" s="14">
+        <f t="shared" si="2"/>
+        <v>144</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="3"/>
+        <v>350</v>
+      </c>
+      <c r="K47" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="10" t="str">
+        <f>PT!A48</f>
+        <v>Grand Total</v>
+      </c>
+      <c r="B48" s="17">
+        <f>SUM(B2:B47)</f>
+        <v>5.1950000000000021</v>
+      </c>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="24">
+        <f>SUM(F2:F47)</f>
+        <v>519.5</v>
+      </c>
+      <c r="G48" s="9"/>
+      <c r="H48" s="16">
+        <f>SUM(H2:H47)</f>
+        <v>66338</v>
+      </c>
+      <c r="I48" s="14">
+        <f>SUM(I2:I47)</f>
+        <v>6234</v>
+      </c>
+      <c r="J48" s="14">
+        <f>SUM(J2:J47)</f>
+        <v>37300</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3862,16 +8953,4 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>